--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,109 +40,130 @@
     <t>name</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>recession</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
@@ -151,39 +172,48 @@
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>vulnerable</t>
+    <t>affected</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
     <t>buying</t>
   </si>
   <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
@@ -193,6 +223,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -202,154 +238,196 @@
     <t>join</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>give</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>check</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>employees</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -707,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -826,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -868,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9130434782608695</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +1054,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.9148936170212766</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1026,13 +1104,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8664383561643836</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.9014084507042254</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1154,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8620689655172413</v>
+        <v>0.84</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,16 +1175,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.900523560209424</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>344</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,10 +1207,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.890625</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.8839285714285714</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1304,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7826086956521739</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.8773584905660378</v>
+        <v>0.890625</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1297,16 +1375,16 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.8658536585365854</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.76</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.8625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,38 +1454,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.746031746031746</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>0.88125</v>
+      </c>
+      <c r="L15">
         <v>141</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>141</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L15">
-        <v>49</v>
-      </c>
-      <c r="M15">
-        <v>49</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1418,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1504,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7435897435897436</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.8181818181818182</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7391304347826086</v>
+        <v>0.775</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.8076923076923077</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1604,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7297297297297297</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.8055555555555556</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1654,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7151162790697675</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C19">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7058823529411765</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L20">
-        <v>49</v>
-      </c>
       <c r="M20">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7037037037037037</v>
+        <v>0.75</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.7708333333333334</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1804,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7</v>
+        <v>0.7306201550387597</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.7573221757322176</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L22">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1818,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6666666666666666</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.7448979591836735</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1954,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6610169491525424</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.7407407407407407</v>
+        <v>0.76</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1918,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +2004,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6308724832214765</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.7230769230769231</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +2054,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.625</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.7127659574468085</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="M27">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2018,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,13 +2104,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5806451612903226</v>
+        <v>0.6875</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2044,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2068,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,13 +2154,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5769230769230769</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2094,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2115,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,13 +2204,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5769230769230769</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>0.6741573033707865</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2168,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2176,13 +2254,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5600000000000001</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2194,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K31">
-        <v>0.6575342465753424</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2218,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2226,13 +2304,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5535714285714286</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2244,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2268,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2276,13 +2354,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5454545454545454</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2294,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K33">
-        <v>0.62</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2318,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2326,13 +2404,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5333333333333333</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2347,16 +2425,16 @@
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K34">
-        <v>0.5777777777777777</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2368,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2376,13 +2454,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5161290322580645</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2394,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>21</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L35">
         <v>15</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K35">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L35">
-        <v>19</v>
-      </c>
       <c r="M35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2418,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2426,13 +2504,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5128205128205128</v>
+        <v>0.6</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2444,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L36">
         <v>19</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L36">
-        <v>13</v>
-      </c>
       <c r="M36">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2468,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2476,13 +2554,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4909090909090909</v>
+        <v>0.6</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2494,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.55</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2518,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2526,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4285714285714285</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2544,19 +2622,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K38">
-        <v>0.543859649122807</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2568,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2576,13 +2654,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2594,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K39">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2618,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2626,37 +2704,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3888888888888889</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K40">
-        <v>0.5357142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2668,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2676,13 +2754,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3650793650793651</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C41">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2694,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2718,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2726,13 +2804,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.325</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2744,19 +2822,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K42">
-        <v>0.4516129032258064</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2768,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2776,13 +2854,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3136729222520107</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C43">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2794,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K43">
-        <v>0.4426229508196721</v>
+        <v>0.59375</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2818,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2826,13 +2904,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3095238095238095</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2844,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>0.4285714285714285</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2868,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2876,13 +2954,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2203389830508475</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2894,19 +2972,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>0.421875</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2918,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2926,13 +3004,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2944,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>0.3728813559322034</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2968,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2976,13 +3054,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07167235494880546</v>
+        <v>0.45</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2994,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>0.25</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3018,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3026,37 +3104,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02133850630455868</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C48">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>3027</v>
+        <v>29</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K48">
-        <v>0.1805555555555556</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3068,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3076,49 +3154,49 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01987899740708729</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E49">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1134</v>
+        <v>144</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>0.1794871794871795</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3126,37 +3204,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01220084467386204</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>2105</v>
+        <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K50">
-        <v>0.1297297297297297</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3168,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3176,231 +3254,939 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004769475357710651</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="C51">
+        <v>116</v>
+      </c>
+      <c r="D51">
+        <v>117</v>
+      </c>
+      <c r="E51">
+        <v>0.01</v>
+      </c>
+      <c r="F51">
+        <v>0.99</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>256</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>13</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.2133333333333333</v>
+      </c>
+      <c r="C52">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>236</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L52">
+        <v>36</v>
+      </c>
+      <c r="M52">
+        <v>36</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.09556313993174062</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>265</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K53">
+        <v>0.4918032786885246</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>216</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K54">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="L54">
         <v>15</v>
       </c>
-      <c r="D51">
-        <v>71</v>
-      </c>
-      <c r="E51">
-        <v>0.79</v>
-      </c>
-      <c r="F51">
-        <v>0.21</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>3130</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51">
-        <v>0.1188811188811189</v>
-      </c>
-      <c r="L51">
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.03882657463330457</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>47</v>
+      </c>
+      <c r="E55">
+        <v>0.04</v>
+      </c>
+      <c r="F55">
+        <v>0.96</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1114</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K55">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L55">
+        <v>28</v>
+      </c>
+      <c r="M55">
+        <v>28</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.03273905996758509</v>
+      </c>
+      <c r="C56">
+        <v>101</v>
+      </c>
+      <c r="D56">
+        <v>123</v>
+      </c>
+      <c r="E56">
+        <v>0.18</v>
+      </c>
+      <c r="F56">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2984</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K56">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="L56">
+        <v>15</v>
+      </c>
+      <c r="M56">
+        <v>15</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.02320185614849188</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>0.2</v>
+      </c>
+      <c r="F57">
+        <v>0.8</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>842</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L57">
+        <v>23</v>
+      </c>
+      <c r="M57">
+        <v>23</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.0222117202268431</v>
+      </c>
+      <c r="C58">
+        <v>47</v>
+      </c>
+      <c r="D58">
+        <v>74</v>
+      </c>
+      <c r="E58">
+        <v>0.36</v>
+      </c>
+      <c r="F58">
+        <v>0.64</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2069</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K58">
+        <v>0.3145161290322581</v>
+      </c>
+      <c r="L58">
+        <v>39</v>
+      </c>
+      <c r="M58">
+        <v>39</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.02215189873417722</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>618</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59">
+        <v>0.2710280373831775</v>
+      </c>
+      <c r="L59">
+        <v>29</v>
+      </c>
+      <c r="M59">
+        <v>31</v>
+      </c>
+      <c r="N59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.01359832635983264</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>0.48</v>
+      </c>
+      <c r="F60">
+        <v>0.52</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>943</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60">
+        <v>0.1772151898734177</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.007033248081841432</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>95</v>
+      </c>
+      <c r="E61">
+        <v>0.77</v>
+      </c>
+      <c r="F61">
+        <v>0.23</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>3106</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61">
+        <v>0.1684210526315789</v>
+      </c>
+      <c r="L61">
+        <v>16</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62">
+        <v>0.168141592920354</v>
+      </c>
+      <c r="L62">
+        <v>19</v>
+      </c>
+      <c r="M62">
+        <v>19</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K63">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
+      <c r="M63">
+        <v>30</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K64">
+        <v>0.1134751773049645</v>
+      </c>
+      <c r="L64">
+        <v>16</v>
+      </c>
+      <c r="M64">
+        <v>18</v>
+      </c>
+      <c r="N64">
+        <v>0.89</v>
+      </c>
+      <c r="O64">
+        <v>0.11</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K65">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="L65">
+        <v>18</v>
+      </c>
+      <c r="M65">
+        <v>19</v>
+      </c>
+      <c r="N65">
+        <v>0.95</v>
+      </c>
+      <c r="O65">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K66">
+        <v>0.09120521172638436</v>
+      </c>
+      <c r="L66">
+        <v>28</v>
+      </c>
+      <c r="M66">
+        <v>29</v>
+      </c>
+      <c r="N66">
+        <v>0.97</v>
+      </c>
+      <c r="O66">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="L67">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>14</v>
+      </c>
+      <c r="N67">
+        <v>0.93</v>
+      </c>
+      <c r="O67">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68">
+        <v>0.0726643598615917</v>
+      </c>
+      <c r="L68">
+        <v>21</v>
+      </c>
+      <c r="M68">
+        <v>21</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69">
+        <v>0.06490384615384616</v>
+      </c>
+      <c r="L69">
+        <v>27</v>
+      </c>
+      <c r="M69">
+        <v>27</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70">
+        <v>0.06321839080459771</v>
+      </c>
+      <c r="L70">
+        <v>22</v>
+      </c>
+      <c r="M70">
+        <v>23</v>
+      </c>
+      <c r="N70">
+        <v>0.96</v>
+      </c>
+      <c r="O70">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71">
+        <v>0.02830188679245283</v>
+      </c>
+      <c r="L71">
+        <v>18</v>
+      </c>
+      <c r="M71">
+        <v>32</v>
+      </c>
+      <c r="N71">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O71">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K72">
+        <v>0.02335928809788654</v>
+      </c>
+      <c r="L72">
+        <v>21</v>
+      </c>
+      <c r="M72">
+        <v>23</v>
+      </c>
+      <c r="N72">
+        <v>0.91</v>
+      </c>
+      <c r="O72">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K73">
+        <v>0.0229631959735766</v>
+      </c>
+      <c r="L73">
+        <v>73</v>
+      </c>
+      <c r="M73">
+        <v>95</v>
+      </c>
+      <c r="N73">
+        <v>0.77</v>
+      </c>
+      <c r="O73">
+        <v>0.23</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K74">
+        <v>0.01791713325867861</v>
+      </c>
+      <c r="L74">
+        <v>16</v>
+      </c>
+      <c r="M74">
         <v>17</v>
       </c>
-      <c r="M51">
-        <v>17</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K52">
-        <v>0.1150442477876106</v>
-      </c>
-      <c r="L52">
-        <v>13</v>
-      </c>
-      <c r="M52">
-        <v>13</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53">
-        <v>0.08139534883720931</v>
-      </c>
-      <c r="L53">
-        <v>14</v>
-      </c>
-      <c r="M53">
-        <v>14</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54">
-        <v>0.07166123778501629</v>
-      </c>
-      <c r="L54">
+      <c r="N74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75">
+        <v>0.01288167938931298</v>
+      </c>
+      <c r="L75">
+        <v>27</v>
+      </c>
+      <c r="M75">
+        <v>74</v>
+      </c>
+      <c r="N75">
+        <v>0.36</v>
+      </c>
+      <c r="O75">
+        <v>0.64</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K76">
+        <v>0.007318695941450432</v>
+      </c>
+      <c r="L76">
         <v>22</v>
       </c>
-      <c r="M54">
-        <v>23</v>
-      </c>
-      <c r="N54">
-        <v>0.96</v>
-      </c>
-      <c r="O54">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K55">
-        <v>0.07163323782234957</v>
-      </c>
-      <c r="L55">
-        <v>25</v>
-      </c>
-      <c r="M55">
-        <v>25</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56">
-        <v>0.04326923076923077</v>
-      </c>
-      <c r="L56">
-        <v>18</v>
-      </c>
-      <c r="M56">
-        <v>18</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K57">
-        <v>0.01757689893283114</v>
-      </c>
-      <c r="L57">
-        <v>56</v>
-      </c>
-      <c r="M57">
-        <v>71</v>
-      </c>
-      <c r="N57">
-        <v>0.79</v>
-      </c>
-      <c r="O57">
-        <v>0.21</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58">
-        <v>0.004603748766853009</v>
-      </c>
-      <c r="L58">
-        <v>14</v>
-      </c>
-      <c r="M58">
-        <v>80</v>
-      </c>
-      <c r="N58">
-        <v>0.17</v>
-      </c>
-      <c r="O58">
-        <v>0.83</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3027</v>
+      <c r="M76">
+        <v>123</v>
+      </c>
+      <c r="N76">
+        <v>0.18</v>
+      </c>
+      <c r="O76">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2984</v>
       </c>
     </row>
   </sheetData>
